--- a/habit_tracker.xlsx
+++ b/habit_tracker.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,39 +493,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,27 +535,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
